--- a/biology/Botanique/Reinette_dorée/Reinette_dorée.xlsx
+++ b/biology/Botanique/Reinette_dorée/Reinette_dorée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La reinette dorée est une variété de pommier domestique cultivée en Europe.
 Nom botanique: Malus domestica "Goldrenette".
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque région a sa "reinette dorée".
 Un des cultivars serait connu vers 1750 entre Agen et Bordeaux, régions où on l'appelle la « Reinette d'Or ».
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sélection du croisement Reinette Ananas x Ribston Pepping
 Mutant: Roter Berlepsch
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit de taille moyenne est de couleur jaune paille foncé.
 Très parfumée, sa chair blanche est juteuse, sucrée sans l'acidité classique des reinettes.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Floraison: très abondante et décorative.
 Fécondation par: Calville blanc d'hiver, Esopus Spitzenburg, Fuji ou Golden delicious.</t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reinette_dor%C3%A9e</t>
+          <t>Reinette_dorée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité: fin octobre.
 Consommation: de novembre à mars.
